--- a/biology/Médecine/Alfred_Auvard/Alfred_Auvard.xlsx
+++ b/biology/Médecine/Alfred_Auvard/Alfred_Auvard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alfred Auvard[Note 1], né le 8 août 1855 dans le lieu-dit de Puyval à Segonzac en Corrèze et mort le 22 novembre 1940 à Leynhac[1], est un obstétricien gynécologue français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alfred Auvard[Note 1], né le 8 août 1855 dans le lieu-dit de Puyval à Segonzac en Corrèze et mort le 22 novembre 1940 à Leynhac, est un obstétricien gynécologue français.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alfred Auvard naît le 8 août 1855 à Puyval[2].
-Élève de Stéphane Tarnier[3], il étudie la médecine à Paris et est reçu au concours de 1886 comme accoucheur des hôpitaux et attaché en cette qualité à l'hôpital Saint-Louis en 1897[4].
-Il institue une clinique privée où exerce et enseigne la gynécologie[2]. Il est rédacteur en chef des archives de Tocologie et de Gynécologie, un journal scientifique consacré à l'étude des accouchements et des maladies des femmes[2].
-Alfred Auvard met au point un spéculum constitué de deux valves en bec de canard aplaties à leur extrémité[5]. Il invente en outre divers 
-procédés  de  gynécologie  opératoire  et  divers  instruments : une  couveuse, un basiotrihe et, surtout, son remarquable cranioclaste qui conserve une place  de choix dans l’arsenal obstétrical en France et à l’étranger[6].
-Vers 1900, son activité professionnelle se ralentit brusquement, cependant que son activité intellectuelle prend une tout autre direction[6]. Ses préoccupations, à partir  de ce moment, sont consacrées aux problèmes religieux et philosophiques[6].
-À partir de 1907, il cesse de diriger son service hospitalier et, en 1918, il est nommé accoucheur honoraire des hôpitaux[6].
-Il se retire dans le Limousin, entre Juillac et Agen[6]. C’est là qu'il meurt[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alfred Auvard naît le 8 août 1855 à Puyval.
+Élève de Stéphane Tarnier, il étudie la médecine à Paris et est reçu au concours de 1886 comme accoucheur des hôpitaux et attaché en cette qualité à l'hôpital Saint-Louis en 1897.
+Il institue une clinique privée où exerce et enseigne la gynécologie. Il est rédacteur en chef des archives de Tocologie et de Gynécologie, un journal scientifique consacré à l'étude des accouchements et des maladies des femmes.
+Alfred Auvard met au point un spéculum constitué de deux valves en bec de canard aplaties à leur extrémité. Il invente en outre divers 
+procédés  de  gynécologie  opératoire  et  divers  instruments : une  couveuse, un basiotrihe et, surtout, son remarquable cranioclaste qui conserve une place  de choix dans l’arsenal obstétrical en France et à l’étranger.
+Vers 1900, son activité professionnelle se ralentit brusquement, cependant que son activité intellectuelle prend une tout autre direction. Ses préoccupations, à partir  de ce moment, sont consacrées aux problèmes religieux et philosophiques.
+À partir de 1907, il cesse de diriger son service hospitalier et, en 1918, il est nommé accoucheur honoraire des hôpitaux.
+Il se retire dans le Limousin, entre Juillac et Agen. C’est là qu'il meurt.
 </t>
         </is>
       </c>
@@ -549,30 +563,32 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traitement de la métrite parenchymateuse par les scarifications du col de l'utérus (1880)
-De la pince à os et du cranioclaste. Étude historique et expérimentale (1884)[2]
-De la conduite à tenir dans les cas de placenta praevia (1886)[2]
+De la pince à os et du cranioclaste. Étude historique et expérimentale (1884)
+De la conduite à tenir dans les cas de placenta praevia (1886)
 De la Couveuse pour enfants (1888)
 L'hypnotisme et la suggestion en obstétrique (1888)
-Traitement de l'éclampsie puerpérale (1888)[2]
+Traitement de l'éclampsie puerpérale (1888)
 Embryotome céphalique combiné (1889)
-Hygiène infantile ancienne et moderne (maillot, berceau et biberon à travers les âges) (1889)[2]
-De l'Antisepsie en gynécologie et en obstétrique (1891)[2]
-Formulaire gynécologique illustré (1892)[4].
-Formulaire obstétrical illustré (1892)[4].
+Hygiène infantile ancienne et moderne (maillot, berceau et biberon à travers les âges) (1889)
+De l'Antisepsie en gynécologie et en obstétrique (1891)
+Formulaire gynécologique illustré (1892).
+Formulaire obstétrical illustré (1892).
 Gynécologie. Séméiologie géni (1892)
 Menstruation et fécondation, physiologie et pathologie (1892)
-Planches murales pour l'enseignement de la gynécologie, tirées en plusieurs couleurs (1892)[4].
+Planches murales pour l'enseignement de la gynécologie, tirées en plusieurs couleurs (1892).
 Anesthésie chirurgicale et obstétricale (1893)
 Guide de thérapeutique générale et spéciale (1893)
-Thérapeutique obstétricale (1893)[4].
-Traité pratique de gynécologie (1894)[4].
-De la Stérilité chez la femme (1896)[4].
-Thérapeutique gynécologique (1896)[4].
-Traité pratique d'accouchements (1898)[4].
-Le nouveau-né (1905)[4].
+Thérapeutique obstétricale (1893).
+Traité pratique de gynécologie (1894).
+De la Stérilité chez la femme (1896).
+Thérapeutique gynécologique (1896).
+Traité pratique d'accouchements (1898).
+Le nouveau-né (1905).
 L'Évoluisme (1914)
 Aurore nouvelle (1917)
 Aum (essence des religions) (1918)
